--- a/2-modèle G modifié/calibration/1_Mesure uniquement/Résultats (intervalle confiance 68%)_mesure.xlsx
+++ b/2-modèle G modifié/calibration/1_Mesure uniquement/Résultats (intervalle confiance 68%)_mesure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Desktop\Supaero 3A 2023-2024\projet recherche\travail concret projet\2-modèle G modifié\calibration\1_Mesure uniquement v\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Desktop\Supaero_3A_2023-2024\projet_recherche\travail_concret_projet\2-modèle G modifié\calibration\1_Mesure uniquement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DF887-25BC-4EBD-8D68-89D7F39E002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D250C85E-2377-4E82-82A6-CA4D7BBFD1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>only alpha</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>↑ : résultats très différents selon les ranges de recherche ( on dirait qu'ils s'inversent : par contre mêm chi2)</t>
+  </si>
+  <si>
+    <t>alpha fixé</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +704,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.18</v>
+      </c>
+      <c r="E10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F10">
+        <f>ABS(E10-0.378)</f>
+        <v>0.12</v>
+      </c>
+      <c r="G10">
+        <f>ABS(E10-0.138)</f>
+        <v>0.12</v>
+      </c>
+      <c r="K10">
+        <v>1524.4584535804599</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>K10+2*L10</f>
+        <v>1526.4584535804599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
